--- a/WebApplication3/тест.xlsx
+++ b/WebApplication3/тест.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>впапв</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Station Name</t>
   </si>
@@ -35,13 +32,10 @@
     <t>Station Number</t>
   </si>
   <si>
-    <t>влоовіолі</t>
+    <t>Кропивницький</t>
   </si>
   <si>
-    <t>фівсвіммаві</t>
-  </si>
-  <si>
-    <t>івлвлвллвлв</t>
+    <t>Запоріжжя</t>
   </si>
 </sst>
 </file>
@@ -360,10 +354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -373,18 +367,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -392,23 +386,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
